--- a/ResultadosProb.xlsx
+++ b/ResultadosProb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA7736-E985-4038-9AA8-5BA8C3275973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD311D-C2BB-450E-98E5-573C601C4D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promedio" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,19 @@
     <sheet name="Run4" sheetId="5" r:id="rId5"/>
     <sheet name="Run5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,10 +184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -191,11 +199,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="1" builtinId="10"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,282 +480,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>AVERAGE('Run1'!B3,'Run2'!B3,'Run3'!B3,'Run4'!B3,'Run5'!B3)</f>
         <v>0.81495647721454123</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>AVERAGE('Run1'!C3,'Run2'!C3,'Run3'!C3,'Run4'!C3,'Run5'!C3)</f>
         <v>0.58929460223203822</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>AVERAGE('Run1'!D3,'Run2'!D3,'Run3'!D3,'Run4'!D3,'Run5'!D3)</f>
         <v>0.5972577440319633</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>AVERAGE('Run1'!E3,'Run2'!E3,'Run3'!E3,'Run4'!E3,'Run5'!E3)</f>
         <v>0.38569380440348133</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>AVERAGE('Run1'!B4,'Run2'!B4,'Run3'!B4,'Run4'!B4,'Run5'!B4)</f>
         <v>0.5246313660599371</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>AVERAGE('Run1'!C4,'Run2'!C4,'Run3'!C4,'Run4'!C4,'Run5'!C4)</f>
         <v>0.49669734696238199</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>AVERAGE('Run1'!D4,'Run2'!D4,'Run3'!D4,'Run4'!D4,'Run5'!D4)</f>
         <v>0.50113522381711917</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>AVERAGE('Run1'!E4,'Run2'!E4,'Run3'!E4,'Run4'!E4,'Run5'!E4)</f>
         <v>0.80989152417723775</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.81731999999999994</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.58981481481481446</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.6005053567216917</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>AVERAGE('Run1'!B5,'Run2'!B5,'Run3'!B5,'Run4'!B5,'Run5'!B5)</f>
         <v>0.95333333333333292</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>AVERAGE('Run1'!C5,'Run2'!C5,'Run3'!C5,'Run4'!C5,'Run5'!C5)</f>
         <v>0.94699735449735412</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>AVERAGE('Run1'!D5,'Run2'!D5,'Run3'!D5,'Run4'!D5,'Run5'!D5)</f>
         <v>0.95303174603174556</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>AVERAGE('Run1'!E5,'Run2'!E5,'Run3'!E5,'Run4'!E5,'Run5'!E5)</f>
         <v>7.8666666666666621E-2</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.53046883618312146</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.50379010575883876</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.50703418033277503</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>AVERAGE('Run1'!B6,'Run2'!B6,'Run3'!B6,'Run4'!B6,'Run5'!B6)</f>
         <v>0.77437229437229393</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>AVERAGE('Run1'!C6,'Run2'!C6,'Run3'!C6,'Run4'!C6,'Run5'!C6)</f>
         <v>0.70745205720205673</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>AVERAGE('Run1'!D6,'Run2'!D6,'Run3'!D6,'Run4'!D6,'Run5'!D6)</f>
         <v>0.70683086543086504</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>AVERAGE('Run1'!E6,'Run2'!E6,'Run3'!E6,'Run4'!E6,'Run5'!E6)</f>
         <v>0.74207792207792189</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.95653333333333312</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.95653333333333312</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.95344601943341412</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>AVERAGE('Run1'!B7,'Run2'!B7,'Run3'!B7,'Run4'!B7,'Run5'!B7)</f>
         <v>0.82590476190476136</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>AVERAGE('Run1'!C7,'Run2'!C7,'Run3'!C7,'Run4'!C7,'Run5'!C7)</f>
         <v>0.76816161616161582</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>AVERAGE('Run1'!D7,'Run2'!D7,'Run3'!D7,'Run4'!D7,'Run5'!D7)</f>
         <v>0.76042454304954255</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>AVERAGE('Run1'!E7,'Run2'!E7,'Run3'!E7,'Run4'!E7,'Run5'!E7)</f>
         <v>0.62114285714285677</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.81731999999999994</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.58981481481481446</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.6005053567216917</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.53046883618312146</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.50379010575883876</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.50703418033277503</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.95653333333333312</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.95653333333333312</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.95344601943341412</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="I7" s="3">
         <v>0.78487619047619006</v>
       </c>
-      <c r="C15" s="4">
+      <c r="J7" s="3">
         <v>0.74063393643393605</v>
       </c>
-      <c r="D15" s="4">
+      <c r="K7" s="3">
         <v>0.7299872608872594</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="I8" s="3">
         <v>0.82685714285714229</v>
       </c>
-      <c r="C16" s="4">
+      <c r="J8" s="3">
         <v>0.77376575276575232</v>
       </c>
-      <c r="D16" s="4">
+      <c r="K8" s="3">
         <v>0.77375962000961984</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -757,22 +757,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B292F73-8615-4DEC-B6D8-2D236A1D4E06}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0.38878648233486901</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
         <v>0.81463044677330299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -840,7 +840,7 @@
         <v>8.66666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0.76709956709956695</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -874,11 +874,8 @@
         <v>0.61952380952380903</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -894,16 +891,16 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -920,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -937,7 +934,7 @@
         <v>0.37936507936507902</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -954,7 +951,7 @@
         <v>0.81258043758043697</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -971,7 +968,7 @@
         <v>7.3333333333333306E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -988,7 +985,7 @@
         <v>0.71948051948051905</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1018,16 +1015,16 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1058,7 @@
         <v>0.38894009216589798</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>0.81127964699393196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>0.71428571428571397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1142,16 +1139,16 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1182,7 @@
         <v>0.38891449052739302</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>0.80711987497701698</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1216,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>0.75259740259740204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1266,16 +1263,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>0.38246287762416797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>0.80384721456149999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>9.3333333333333296E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>0.756926406926407</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
